--- a/member_info.xlsx
+++ b/member_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NeuroGEARS Ltd\Project Aeon - Documents\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\ProjectAeon\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_732B034970F378595FBC8F520DF0A3BC2C73FED8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2417C1-66A7-462C-9CBE-959F0E5A28E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776260D8-C845-4A1F-90B4-06C1325096CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="1176" windowWidth="17280" windowHeight="8916" xr2:uid="{FA83BAD1-7A6D-4A24-94CA-545556F936C2}"/>
+    <workbookView xWindow="4980" yWindow="2568" windowWidth="17280" windowHeight="8916" xr2:uid="{FA83BAD1-7A6D-4A24-94CA-545556F936C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Member Info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -70,19 +70,10 @@
     <t>Jai Bhagat</t>
   </si>
   <si>
-    <t>(Experiment Control) Software Development. Data Architecture. Data Science.</t>
-  </si>
-  <si>
-    <t>Data Architecture (Chair), Task Control &amp; Acquisition, Mechatronics (Listener)</t>
-  </si>
-  <si>
     <t>Simon Townsend</t>
   </si>
   <si>
     <t>SWC FabLab</t>
-  </si>
-  <si>
-    <t>Mechanical Engineering. Design and Fabrication.</t>
   </si>
   <si>
     <t>Del Halpin</t>
@@ -200,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,19 +550,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="41.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="30.7109375" style="2"/>
+    <col min="1" max="16384" width="30.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.25" customHeight="1">
+    <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.25" customHeight="1">
+    <row r="3" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.25" customHeight="1">
+    <row r="4" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -603,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.25" customHeight="1">
+    <row r="5" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -611,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="41.25" customHeight="1">
+    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -619,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41.25" customHeight="1">
+    <row r="7" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -627,292 +618,283 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="41.25" customHeight="1">
+    <row r="8" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="41.25" customHeight="1">
+    <row r="16" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="41.25" customHeight="1">
+    <row r="17" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="41.25" customHeight="1">
+    <row r="18" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="41.25" customHeight="1">
+    <row r="27" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="41.25" customHeight="1">
+    <row r="28" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="41.25" customHeight="1">
+    <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="41.25" customHeight="1">
+    <row r="30" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="41.25" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="41.25" customHeight="1">
+    <row r="32" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -948,44 +930,44 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -994,6 +976,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D5704D79E672C49A18E6964D655B401" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="615301a31e76ce225bf03293b2323165">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da485f4-e89b-4614-b73f-a638e5b88f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb4d188c8e8b89545b451d035666433a" ns2:_="">
     <xsd:import namespace="8da485f4-e89b-4614-b73f-a638e5b88f9d"/>
@@ -1183,15 +1174,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1199,13 +1181,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B5C4C7-B17A-493E-BBA8-A21B773D51A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0109F0-B60A-4930-A866-D7BC9DB57250}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0109F0-B60A-4930-A866-D7BC9DB57250}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B5C4C7-B17A-493E-BBA8-A21B773D51A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da485f4-e89b-4614-b73f-a638e5b88f9d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F07719-13D6-4CDC-B3C7-6922F994B471}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F07719-13D6-4CDC-B3C7-6922F994B471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>